--- a/XLFiles/Examples/Template Example Simple.xlsx
+++ b/XLFiles/Examples/Template Example Simple.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1035" windowWidth="7830" windowHeight="2025" tabRatio="880"/>
+    <workbookView xWindow="330" yWindow="1035" windowWidth="7830" windowHeight="2025" tabRatio="880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Build" sheetId="183" r:id="rId1"/>
@@ -778,18 +778,6 @@
     <t>child</t>
   </si>
   <si>
-    <t>HP-ES</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>ES-Region</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -805,12 +793,6 @@
     <t>Sub Region-Country</t>
   </si>
   <si>
-    <t>Financial Target &lt;&lt;ES&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Demand Forecast &lt;&lt;ES&gt;&gt;</t>
-  </si>
-  <si>
     <t>Financial Target &lt;&lt;Region&gt;&gt;</t>
   </si>
   <si>
@@ -833,9 +815,6 @@
   </si>
   <si>
     <t>Demand Forecast &lt;&lt;Account&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Meet Objectives &lt;&lt;ES&gt;&gt;</t>
   </si>
   <si>
     <t>Meet Objectives &lt;&lt;Region&gt;&gt;</t>
@@ -915,6 +894,27 @@
   </si>
   <si>
     <t>Subordinate Objectives Template</t>
+  </si>
+  <si>
+    <t>Example Company</t>
+  </si>
+  <si>
+    <t>Financial Target &lt;&lt;Example Division&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Example Company-Example Division</t>
+  </si>
+  <si>
+    <t>Demand Forecast &lt;&lt;Example Division&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Example Division-Region</t>
+  </si>
+  <si>
+    <t>Example Division</t>
+  </si>
+  <si>
+    <t>Meet Objectives &lt;&lt;Example Division&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1506,934 +1506,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF356FB4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -10516,6 +9588,570 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FF356FB4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -10828,6 +10464,370 @@
           <bgColor rgb="FF356FB4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -11004,656 +11004,656 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QGraphSpec" displayName="QGraphSpec" ref="A1:J35" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QGraphSpec" displayName="QGraphSpec" ref="A1:J35" totalsRowShown="0" headerRowDxfId="564" dataDxfId="563">
   <tableColumns count="10">
-    <tableColumn id="1" name="Workbook" dataDxfId="42"/>
-    <tableColumn id="2" name="Worksheet" dataDxfId="41"/>
-    <tableColumn id="12" name="M1" dataDxfId="40"/>
-    <tableColumn id="4" name="M2" dataDxfId="39"/>
-    <tableColumn id="3" name="M3" dataDxfId="38"/>
-    <tableColumn id="5" name="M4" dataDxfId="37"/>
-    <tableColumn id="6" name="M5" dataDxfId="36"/>
-    <tableColumn id="10" name="M6" dataDxfId="35"/>
-    <tableColumn id="7" name="M7" dataDxfId="34"/>
-    <tableColumn id="8" name="M8" dataDxfId="33"/>
+    <tableColumn id="1" name="Workbook" dataDxfId="562"/>
+    <tableColumn id="2" name="Worksheet" dataDxfId="561"/>
+    <tableColumn id="12" name="M1" dataDxfId="560"/>
+    <tableColumn id="4" name="M2" dataDxfId="559"/>
+    <tableColumn id="3" name="M3" dataDxfId="558"/>
+    <tableColumn id="5" name="M4" dataDxfId="557"/>
+    <tableColumn id="6" name="M5" dataDxfId="556"/>
+    <tableColumn id="10" name="M6" dataDxfId="555"/>
+    <tableColumn id="7" name="M7" dataDxfId="554"/>
+    <tableColumn id="8" name="M8" dataDxfId="553"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table117" displayName="Table117" ref="A1:AE6" headerRowDxfId="348" dataDxfId="347" totalsRowDxfId="346">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table117" displayName="Table117" ref="A1:AE6" headerRowDxfId="303" dataDxfId="302" totalsRowDxfId="301">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" totalsRowLabel="1" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="2" name="Role" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="5" name="Artifact" totalsRowLabel="asdf" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" totalsRowLabel="asdf" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="321" totalsRowDxfId="320"/>
-    <tableColumn id="14" name="Actors" dataDxfId="319" totalsRowDxfId="318"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="317" totalsRowDxfId="316"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="315" totalsRowDxfId="314"/>
-    <tableColumn id="17" name="Replica" dataDxfId="313" totalsRowDxfId="312"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="311" totalsRowDxfId="310"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="309" totalsRowDxfId="308"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="307" totalsRowDxfId="306"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="305" totalsRowDxfId="304"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="303" totalsRowDxfId="302"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="301" totalsRowDxfId="300"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="299" totalsRowDxfId="298"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="27" name="Description" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="28" name="URL" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="29" name="Color" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="30" name="Style" dataDxfId="287" totalsRowDxfId="286"/>
-    <tableColumn id="31" name="Other Notes" totalsRowFunction="count" dataDxfId="285" totalsRowDxfId="284"/>
+    <tableColumn id="1" name="Ignore" totalsRowLabel="1" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="2" name="Role" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="5" name="Artifact" totalsRowLabel="asdf" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" totalsRowLabel="asdf" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="14" name="Actors" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="17" name="Replica" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="27" name="Description" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="28" name="URL" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="29" name="Color" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="30" name="Style" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="31" name="Other Notes" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="283" dataDxfId="282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="238" dataDxfId="237">
   <tableColumns count="31">
-    <tableColumn id="32" name="Ignore" dataDxfId="281"/>
-    <tableColumn id="1" name="Role" dataDxfId="280"/>
-    <tableColumn id="2" name="Responsibility" dataDxfId="279"/>
-    <tableColumn id="3" name="Provides|Consumes" dataDxfId="278"/>
-    <tableColumn id="4" name="Artifact" dataDxfId="277"/>
-    <tableColumn id="5" name="Provided By|Consumed By" dataDxfId="276"/>
-    <tableColumn id="6" name="Responsibility to Resp 2" dataDxfId="275"/>
-    <tableColumn id="9" name="Role to Resp 2" dataDxfId="274"/>
-    <tableColumn id="7" name="Resp 2" dataDxfId="273"/>
-    <tableColumn id="8" name="Role to Role 2" dataDxfId="272"/>
-    <tableColumn id="10" name="Role 2" dataDxfId="271"/>
-    <tableColumn id="11" name="Artifact to Artifact 2" dataDxfId="270"/>
-    <tableColumn id="12" name="Artifact 2" dataDxfId="269"/>
-    <tableColumn id="13" name="Actors" dataDxfId="268"/>
-    <tableColumn id="14" name="Actor Class" dataDxfId="267"/>
-    <tableColumn id="33" name="Feature in Evocation" dataDxfId="266"/>
-    <tableColumn id="16" name="Replica" dataDxfId="265"/>
-    <tableColumn id="27" name="Evoked Template" dataDxfId="264"/>
-    <tableColumn id="28" name="Style of Inclusion in Template" dataDxfId="263"/>
-    <tableColumn id="30" name="Include All in Template" dataDxfId="262"/>
-    <tableColumn id="31" name="Include Relations in Template" dataDxfId="261"/>
-    <tableColumn id="21" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="260"/>
-    <tableColumn id="22" name="Conceptual Service to Contextual Responsibility" dataDxfId="259"/>
-    <tableColumn id="23" name="Conceptual Tower to Contextual Role" dataDxfId="258"/>
-    <tableColumn id="24" name="Conceptual Document to Contextual Artifact" dataDxfId="257"/>
-    <tableColumn id="25" name="Conceptual UI to Contextual Role" dataDxfId="256"/>
-    <tableColumn id="17" name="Description" dataDxfId="255"/>
-    <tableColumn id="18" name="URL" dataDxfId="254"/>
-    <tableColumn id="19" name="Color" dataDxfId="253"/>
-    <tableColumn id="20" name="Style" dataDxfId="252"/>
-    <tableColumn id="26" name="Other Notes" dataDxfId="251"/>
+    <tableColumn id="32" name="Ignore" dataDxfId="236"/>
+    <tableColumn id="1" name="Role" dataDxfId="235"/>
+    <tableColumn id="2" name="Responsibility" dataDxfId="234"/>
+    <tableColumn id="3" name="Provides|Consumes" dataDxfId="233"/>
+    <tableColumn id="4" name="Artifact" dataDxfId="232"/>
+    <tableColumn id="5" name="Provided By|Consumed By" dataDxfId="231"/>
+    <tableColumn id="6" name="Responsibility to Resp 2" dataDxfId="230"/>
+    <tableColumn id="9" name="Role to Resp 2" dataDxfId="229"/>
+    <tableColumn id="7" name="Resp 2" dataDxfId="228"/>
+    <tableColumn id="8" name="Role to Role 2" dataDxfId="227"/>
+    <tableColumn id="10" name="Role 2" dataDxfId="226"/>
+    <tableColumn id="11" name="Artifact to Artifact 2" dataDxfId="225"/>
+    <tableColumn id="12" name="Artifact 2" dataDxfId="224"/>
+    <tableColumn id="13" name="Actors" dataDxfId="223"/>
+    <tableColumn id="14" name="Actor Class" dataDxfId="222"/>
+    <tableColumn id="33" name="Feature in Evocation" dataDxfId="221"/>
+    <tableColumn id="16" name="Replica" dataDxfId="220"/>
+    <tableColumn id="27" name="Evoked Template" dataDxfId="219"/>
+    <tableColumn id="28" name="Style of Inclusion in Template" dataDxfId="218"/>
+    <tableColumn id="30" name="Include All in Template" dataDxfId="217"/>
+    <tableColumn id="31" name="Include Relations in Template" dataDxfId="216"/>
+    <tableColumn id="21" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="215"/>
+    <tableColumn id="22" name="Conceptual Service to Contextual Responsibility" dataDxfId="214"/>
+    <tableColumn id="23" name="Conceptual Tower to Contextual Role" dataDxfId="213"/>
+    <tableColumn id="24" name="Conceptual Document to Contextual Artifact" dataDxfId="212"/>
+    <tableColumn id="25" name="Conceptual UI to Contextual Role" dataDxfId="211"/>
+    <tableColumn id="17" name="Description" dataDxfId="210"/>
+    <tableColumn id="18" name="URL" dataDxfId="209"/>
+    <tableColumn id="19" name="Color" dataDxfId="208"/>
+    <tableColumn id="20" name="Style" dataDxfId="207"/>
+    <tableColumn id="26" name="Other Notes" dataDxfId="206"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table16" displayName="Table16" ref="A1:AA6" totalsRowShown="0" headerRowDxfId="250" dataDxfId="249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table16" displayName="Table16" ref="A1:AA6" totalsRowShown="0" headerRowDxfId="205" dataDxfId="204">
   <tableColumns count="27">
-    <tableColumn id="1" name="Ignore" dataDxfId="248"/>
-    <tableColumn id="2" name="UI" dataDxfId="247"/>
-    <tableColumn id="3" name="Service" dataDxfId="246"/>
-    <tableColumn id="4" name="CRUD Service" dataDxfId="245"/>
-    <tableColumn id="5" name="Tower" dataDxfId="244"/>
-    <tableColumn id="6" name="Operation" dataDxfId="243"/>
-    <tableColumn id="7" name="Request" dataDxfId="242"/>
-    <tableColumn id="8" name="Response" dataDxfId="241"/>
-    <tableColumn id="9" name="Fundamental Object" dataDxfId="240"/>
-    <tableColumn id="10" name="Depending Operation" dataDxfId="239"/>
-    <tableColumn id="11" name="Depending Service" dataDxfId="238"/>
-    <tableColumn id="12" name="Fundamental Object Relationships" dataDxfId="237"/>
-    <tableColumn id="13" name="Fundamental Object 2" dataDxfId="236"/>
-    <tableColumn id="14" name="Fundamental Object Decomposition" dataDxfId="235"/>
-    <tableColumn id="15" name="Document" dataDxfId="234"/>
-    <tableColumn id="16" name="Tower 2" dataDxfId="233"/>
-    <tableColumn id="17" name="Feature in Evocation" dataDxfId="232"/>
-    <tableColumn id="18" name="Replica" dataDxfId="231"/>
-    <tableColumn id="19" name="Evoked Template" dataDxfId="230"/>
-    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="229"/>
-    <tableColumn id="21" name="Include All in Template" dataDxfId="228"/>
-    <tableColumn id="22" name="Include Relations in Template" dataDxfId="227"/>
-    <tableColumn id="23" name="Description" dataDxfId="226"/>
-    <tableColumn id="24" name="URL" dataDxfId="225"/>
-    <tableColumn id="25" name="Color" dataDxfId="224"/>
-    <tableColumn id="26" name="Style" dataDxfId="223"/>
-    <tableColumn id="27" name="Other Notes" dataDxfId="222"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="203"/>
+    <tableColumn id="2" name="UI" dataDxfId="202"/>
+    <tableColumn id="3" name="Service" dataDxfId="201"/>
+    <tableColumn id="4" name="CRUD Service" dataDxfId="200"/>
+    <tableColumn id="5" name="Tower" dataDxfId="199"/>
+    <tableColumn id="6" name="Operation" dataDxfId="198"/>
+    <tableColumn id="7" name="Request" dataDxfId="197"/>
+    <tableColumn id="8" name="Response" dataDxfId="196"/>
+    <tableColumn id="9" name="Fundamental Object" dataDxfId="195"/>
+    <tableColumn id="10" name="Depending Operation" dataDxfId="194"/>
+    <tableColumn id="11" name="Depending Service" dataDxfId="193"/>
+    <tableColumn id="12" name="Fundamental Object Relationships" dataDxfId="192"/>
+    <tableColumn id="13" name="Fundamental Object 2" dataDxfId="191"/>
+    <tableColumn id="14" name="Fundamental Object Decomposition" dataDxfId="190"/>
+    <tableColumn id="15" name="Document" dataDxfId="189"/>
+    <tableColumn id="16" name="Tower 2" dataDxfId="188"/>
+    <tableColumn id="17" name="Feature in Evocation" dataDxfId="187"/>
+    <tableColumn id="18" name="Replica" dataDxfId="186"/>
+    <tableColumn id="19" name="Evoked Template" dataDxfId="185"/>
+    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="184"/>
+    <tableColumn id="21" name="Include All in Template" dataDxfId="183"/>
+    <tableColumn id="22" name="Include Relations in Template" dataDxfId="182"/>
+    <tableColumn id="23" name="Description" dataDxfId="181"/>
+    <tableColumn id="24" name="URL" dataDxfId="180"/>
+    <tableColumn id="25" name="Color" dataDxfId="179"/>
+    <tableColumn id="26" name="Style" dataDxfId="178"/>
+    <tableColumn id="27" name="Other Notes" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table17" displayName="Table17" ref="A1:AA6" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table17" displayName="Table17" ref="A1:AA6" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
   <tableColumns count="27">
-    <tableColumn id="1" name="Ignore" dataDxfId="219"/>
-    <tableColumn id="2" name="UI" dataDxfId="218"/>
-    <tableColumn id="3" name="Service" dataDxfId="217"/>
-    <tableColumn id="4" name="CRUD Service" dataDxfId="216"/>
-    <tableColumn id="5" name="Tower" dataDxfId="215"/>
-    <tableColumn id="6" name="Operation" dataDxfId="214"/>
-    <tableColumn id="7" name="Request" dataDxfId="213"/>
-    <tableColumn id="8" name="Response" dataDxfId="212"/>
-    <tableColumn id="9" name="Fundamental Object" dataDxfId="211"/>
-    <tableColumn id="10" name="Depending Operation" dataDxfId="210"/>
-    <tableColumn id="11" name="Depending Service" dataDxfId="209"/>
-    <tableColumn id="12" name="Fundamental Object Relationships" dataDxfId="208"/>
-    <tableColumn id="13" name="Fundamental Object 2" dataDxfId="207"/>
-    <tableColumn id="14" name="Fundamental Object Decomposition" dataDxfId="206"/>
-    <tableColumn id="15" name="Document" dataDxfId="205"/>
-    <tableColumn id="16" name="Tower 2" dataDxfId="204"/>
-    <tableColumn id="17" name="Feature in Evocation" dataDxfId="203"/>
-    <tableColumn id="18" name="Replica" dataDxfId="202"/>
-    <tableColumn id="19" name="Evoked Template" dataDxfId="201"/>
-    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="200"/>
-    <tableColumn id="21" name="Include All in Template" dataDxfId="199"/>
-    <tableColumn id="22" name="Include Relations in Template" dataDxfId="198"/>
-    <tableColumn id="23" name="Description" dataDxfId="197"/>
-    <tableColumn id="24" name="URL" dataDxfId="196"/>
-    <tableColumn id="25" name="Color" dataDxfId="195"/>
-    <tableColumn id="26" name="Style" dataDxfId="194"/>
-    <tableColumn id="27" name="Other Notes" dataDxfId="193"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="174"/>
+    <tableColumn id="2" name="UI" dataDxfId="173"/>
+    <tableColumn id="3" name="Service" dataDxfId="172"/>
+    <tableColumn id="4" name="CRUD Service" dataDxfId="171"/>
+    <tableColumn id="5" name="Tower" dataDxfId="170"/>
+    <tableColumn id="6" name="Operation" dataDxfId="169"/>
+    <tableColumn id="7" name="Request" dataDxfId="168"/>
+    <tableColumn id="8" name="Response" dataDxfId="167"/>
+    <tableColumn id="9" name="Fundamental Object" dataDxfId="166"/>
+    <tableColumn id="10" name="Depending Operation" dataDxfId="165"/>
+    <tableColumn id="11" name="Depending Service" dataDxfId="164"/>
+    <tableColumn id="12" name="Fundamental Object Relationships" dataDxfId="163"/>
+    <tableColumn id="13" name="Fundamental Object 2" dataDxfId="162"/>
+    <tableColumn id="14" name="Fundamental Object Decomposition" dataDxfId="161"/>
+    <tableColumn id="15" name="Document" dataDxfId="160"/>
+    <tableColumn id="16" name="Tower 2" dataDxfId="159"/>
+    <tableColumn id="17" name="Feature in Evocation" dataDxfId="158"/>
+    <tableColumn id="18" name="Replica" dataDxfId="157"/>
+    <tableColumn id="19" name="Evoked Template" dataDxfId="156"/>
+    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="155"/>
+    <tableColumn id="21" name="Include All in Template" dataDxfId="154"/>
+    <tableColumn id="22" name="Include Relations in Template" dataDxfId="153"/>
+    <tableColumn id="23" name="Description" dataDxfId="152"/>
+    <tableColumn id="24" name="URL" dataDxfId="151"/>
+    <tableColumn id="25" name="Color" dataDxfId="150"/>
+    <tableColumn id="26" name="Style" dataDxfId="149"/>
+    <tableColumn id="27" name="Other Notes" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table18" displayName="Table18" ref="A1:AA6" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table18" displayName="Table18" ref="A1:AA6" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="27">
-    <tableColumn id="1" name="Ignore" dataDxfId="190"/>
-    <tableColumn id="2" name="UI" dataDxfId="189"/>
-    <tableColumn id="3" name="Service" dataDxfId="188"/>
-    <tableColumn id="4" name="CRUD Service" dataDxfId="187"/>
-    <tableColumn id="5" name="Tower" dataDxfId="186"/>
-    <tableColumn id="6" name="Operation" dataDxfId="185"/>
-    <tableColumn id="7" name="Request" dataDxfId="184"/>
-    <tableColumn id="8" name="Response" dataDxfId="183"/>
-    <tableColumn id="9" name="Fundamental Object" dataDxfId="182"/>
-    <tableColumn id="10" name="Depending Operation" dataDxfId="181"/>
-    <tableColumn id="11" name="Depending Service" dataDxfId="180"/>
-    <tableColumn id="12" name="Fundamental Object Relationships" dataDxfId="179"/>
-    <tableColumn id="13" name="Fundamental Object 2" dataDxfId="178"/>
-    <tableColumn id="14" name="Fundamental Object Decomposition" dataDxfId="177"/>
-    <tableColumn id="15" name="Document" dataDxfId="176"/>
-    <tableColumn id="16" name="Tower 2" dataDxfId="175"/>
-    <tableColumn id="17" name="Feature in Evocation" dataDxfId="174"/>
-    <tableColumn id="18" name="Replica" dataDxfId="173"/>
-    <tableColumn id="19" name="Evoked Template" dataDxfId="172"/>
-    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="171"/>
-    <tableColumn id="21" name="Include All in Template" dataDxfId="170"/>
-    <tableColumn id="22" name="Include Relations in Template" dataDxfId="169"/>
-    <tableColumn id="23" name="Description" dataDxfId="168"/>
-    <tableColumn id="24" name="URL" dataDxfId="167"/>
-    <tableColumn id="25" name="Color" dataDxfId="166"/>
-    <tableColumn id="26" name="Style" dataDxfId="165"/>
-    <tableColumn id="27" name="Other Notes" dataDxfId="164"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="145"/>
+    <tableColumn id="2" name="UI" dataDxfId="144"/>
+    <tableColumn id="3" name="Service" dataDxfId="143"/>
+    <tableColumn id="4" name="CRUD Service" dataDxfId="142"/>
+    <tableColumn id="5" name="Tower" dataDxfId="141"/>
+    <tableColumn id="6" name="Operation" dataDxfId="140"/>
+    <tableColumn id="7" name="Request" dataDxfId="139"/>
+    <tableColumn id="8" name="Response" dataDxfId="138"/>
+    <tableColumn id="9" name="Fundamental Object" dataDxfId="137"/>
+    <tableColumn id="10" name="Depending Operation" dataDxfId="136"/>
+    <tableColumn id="11" name="Depending Service" dataDxfId="135"/>
+    <tableColumn id="12" name="Fundamental Object Relationships" dataDxfId="134"/>
+    <tableColumn id="13" name="Fundamental Object 2" dataDxfId="133"/>
+    <tableColumn id="14" name="Fundamental Object Decomposition" dataDxfId="132"/>
+    <tableColumn id="15" name="Document" dataDxfId="131"/>
+    <tableColumn id="16" name="Tower 2" dataDxfId="130"/>
+    <tableColumn id="17" name="Feature in Evocation" dataDxfId="129"/>
+    <tableColumn id="18" name="Replica" dataDxfId="128"/>
+    <tableColumn id="19" name="Evoked Template" dataDxfId="127"/>
+    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="126"/>
+    <tableColumn id="21" name="Include All in Template" dataDxfId="125"/>
+    <tableColumn id="22" name="Include Relations in Template" dataDxfId="124"/>
+    <tableColumn id="23" name="Description" dataDxfId="123"/>
+    <tableColumn id="24" name="URL" dataDxfId="122"/>
+    <tableColumn id="25" name="Color" dataDxfId="121"/>
+    <tableColumn id="26" name="Style" dataDxfId="120"/>
+    <tableColumn id="27" name="Other Notes" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A1:AA5" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A1:AA5" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <tableColumns count="27">
-    <tableColumn id="24" name="Ignore" dataDxfId="161"/>
-    <tableColumn id="1" name="UI" dataDxfId="160"/>
-    <tableColumn id="2" name="Service" dataDxfId="159"/>
-    <tableColumn id="3" name="CRUD Service" dataDxfId="158"/>
-    <tableColumn id="4" name="Tower" dataDxfId="157"/>
-    <tableColumn id="5" name="Operation" dataDxfId="156"/>
-    <tableColumn id="6" name="Request" dataDxfId="155"/>
-    <tableColumn id="7" name="Response" dataDxfId="154"/>
-    <tableColumn id="8" name="Fundamental Object" dataDxfId="153"/>
-    <tableColumn id="9" name="Depending Operation" dataDxfId="152"/>
-    <tableColumn id="10" name="Depending Service" dataDxfId="151"/>
-    <tableColumn id="11" name="Fundamental Object Relationships" dataDxfId="150"/>
-    <tableColumn id="12" name="Fundamental Object 2" dataDxfId="149"/>
-    <tableColumn id="17" name="Fundamental Object Decomposition" dataDxfId="148"/>
-    <tableColumn id="16" name="Document" dataDxfId="147"/>
-    <tableColumn id="13" name="Tower 2" dataDxfId="146"/>
-    <tableColumn id="23" name="Feature in Evocation" dataDxfId="145"/>
-    <tableColumn id="22" name="Replica" dataDxfId="144"/>
-    <tableColumn id="21" name="Evoked Template" dataDxfId="143"/>
-    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="142"/>
-    <tableColumn id="19" name="Include All in Template" dataDxfId="141"/>
-    <tableColumn id="18" name="Include Relations in Template" dataDxfId="140"/>
-    <tableColumn id="14" name="Description" dataDxfId="139"/>
-    <tableColumn id="15" name="URL" dataDxfId="138"/>
-    <tableColumn id="25" name="Color" dataDxfId="137"/>
-    <tableColumn id="26" name="Style" dataDxfId="136"/>
-    <tableColumn id="27" name="Other Notes" dataDxfId="135"/>
+    <tableColumn id="24" name="Ignore" dataDxfId="116"/>
+    <tableColumn id="1" name="UI" dataDxfId="115"/>
+    <tableColumn id="2" name="Service" dataDxfId="114"/>
+    <tableColumn id="3" name="CRUD Service" dataDxfId="113"/>
+    <tableColumn id="4" name="Tower" dataDxfId="112"/>
+    <tableColumn id="5" name="Operation" dataDxfId="111"/>
+    <tableColumn id="6" name="Request" dataDxfId="110"/>
+    <tableColumn id="7" name="Response" dataDxfId="109"/>
+    <tableColumn id="8" name="Fundamental Object" dataDxfId="108"/>
+    <tableColumn id="9" name="Depending Operation" dataDxfId="107"/>
+    <tableColumn id="10" name="Depending Service" dataDxfId="106"/>
+    <tableColumn id="11" name="Fundamental Object Relationships" dataDxfId="105"/>
+    <tableColumn id="12" name="Fundamental Object 2" dataDxfId="104"/>
+    <tableColumn id="17" name="Fundamental Object Decomposition" dataDxfId="103"/>
+    <tableColumn id="16" name="Document" dataDxfId="102"/>
+    <tableColumn id="13" name="Tower 2" dataDxfId="101"/>
+    <tableColumn id="23" name="Feature in Evocation" dataDxfId="100"/>
+    <tableColumn id="22" name="Replica" dataDxfId="99"/>
+    <tableColumn id="21" name="Evoked Template" dataDxfId="98"/>
+    <tableColumn id="20" name="Style of Inclusion in Template" dataDxfId="97"/>
+    <tableColumn id="19" name="Include All in Template" dataDxfId="96"/>
+    <tableColumn id="18" name="Include Relations in Template" dataDxfId="95"/>
+    <tableColumn id="14" name="Description" dataDxfId="94"/>
+    <tableColumn id="15" name="URL" dataDxfId="93"/>
+    <tableColumn id="25" name="Color" dataDxfId="92"/>
+    <tableColumn id="26" name="Style" dataDxfId="91"/>
+    <tableColumn id="27" name="Other Notes" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table19" displayName="Table19" ref="A1:R6" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table19" displayName="Table19" ref="A1:R6" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <tableColumns count="18">
-    <tableColumn id="1" name="Ignore" dataDxfId="132"/>
-    <tableColumn id="2" name="Client" dataDxfId="131"/>
-    <tableColumn id="3" name="Offering" dataDxfId="130"/>
-    <tableColumn id="4" name="Offerint to Offering" dataDxfId="129"/>
-    <tableColumn id="5" name="Offering 2" dataDxfId="128"/>
-    <tableColumn id="6" name="Offering to Role" dataDxfId="127"/>
-    <tableColumn id="7" name="Role" dataDxfId="126"/>
-    <tableColumn id="8" name="Offering to Responsibility" dataDxfId="125"/>
-    <tableColumn id="9" name="Responsibility" dataDxfId="124"/>
-    <tableColumn id="10" name="Offering to Tower" dataDxfId="123"/>
-    <tableColumn id="11" name="Tower" dataDxfId="122"/>
-    <tableColumn id="12" name="Offering to Service" dataDxfId="121"/>
-    <tableColumn id="13" name="Service" dataDxfId="120"/>
-    <tableColumn id="14" name="Description" dataDxfId="119"/>
-    <tableColumn id="15" name="URL" dataDxfId="118"/>
-    <tableColumn id="16" name="Color" dataDxfId="117"/>
-    <tableColumn id="17" name="Style" dataDxfId="116"/>
-    <tableColumn id="18" name="Other Notes" dataDxfId="115"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="87"/>
+    <tableColumn id="2" name="Client" dataDxfId="86"/>
+    <tableColumn id="3" name="Offering" dataDxfId="85"/>
+    <tableColumn id="4" name="Offerint to Offering" dataDxfId="84"/>
+    <tableColumn id="5" name="Offering 2" dataDxfId="83"/>
+    <tableColumn id="6" name="Offering to Role" dataDxfId="82"/>
+    <tableColumn id="7" name="Role" dataDxfId="81"/>
+    <tableColumn id="8" name="Offering to Responsibility" dataDxfId="80"/>
+    <tableColumn id="9" name="Responsibility" dataDxfId="79"/>
+    <tableColumn id="10" name="Offering to Tower" dataDxfId="78"/>
+    <tableColumn id="11" name="Tower" dataDxfId="77"/>
+    <tableColumn id="12" name="Offering to Service" dataDxfId="76"/>
+    <tableColumn id="13" name="Service" dataDxfId="75"/>
+    <tableColumn id="14" name="Description" dataDxfId="74"/>
+    <tableColumn id="15" name="URL" dataDxfId="73"/>
+    <tableColumn id="16" name="Color" dataDxfId="72"/>
+    <tableColumn id="17" name="Style" dataDxfId="71"/>
+    <tableColumn id="18" name="Other Notes" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table20" displayName="Table20" ref="A1:R6" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table20" displayName="Table20" ref="A1:R6" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="18">
-    <tableColumn id="1" name="Ignore" dataDxfId="112"/>
-    <tableColumn id="2" name="Client" dataDxfId="111"/>
-    <tableColumn id="3" name="Offering" dataDxfId="110"/>
-    <tableColumn id="4" name="Offerint to Offering" dataDxfId="109"/>
-    <tableColumn id="5" name="Offering 2" dataDxfId="108"/>
-    <tableColumn id="6" name="Offering to Role" dataDxfId="107"/>
-    <tableColumn id="7" name="Role" dataDxfId="106"/>
-    <tableColumn id="8" name="Offering to Responsibility" dataDxfId="105"/>
-    <tableColumn id="9" name="Responsibility" dataDxfId="104"/>
-    <tableColumn id="10" name="Offering to Tower" dataDxfId="103"/>
-    <tableColumn id="11" name="Tower" dataDxfId="102"/>
-    <tableColumn id="12" name="Offering to Service" dataDxfId="101"/>
-    <tableColumn id="13" name="Service" dataDxfId="100"/>
-    <tableColumn id="14" name="Description" dataDxfId="99"/>
-    <tableColumn id="15" name="URL" dataDxfId="98"/>
-    <tableColumn id="16" name="Color" dataDxfId="97"/>
-    <tableColumn id="17" name="Style" dataDxfId="96"/>
-    <tableColumn id="18" name="Other Notes" dataDxfId="95"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="67"/>
+    <tableColumn id="2" name="Client" dataDxfId="66"/>
+    <tableColumn id="3" name="Offering" dataDxfId="65"/>
+    <tableColumn id="4" name="Offerint to Offering" dataDxfId="64"/>
+    <tableColumn id="5" name="Offering 2" dataDxfId="63"/>
+    <tableColumn id="6" name="Offering to Role" dataDxfId="62"/>
+    <tableColumn id="7" name="Role" dataDxfId="61"/>
+    <tableColumn id="8" name="Offering to Responsibility" dataDxfId="60"/>
+    <tableColumn id="9" name="Responsibility" dataDxfId="59"/>
+    <tableColumn id="10" name="Offering to Tower" dataDxfId="58"/>
+    <tableColumn id="11" name="Tower" dataDxfId="57"/>
+    <tableColumn id="12" name="Offering to Service" dataDxfId="56"/>
+    <tableColumn id="13" name="Service" dataDxfId="55"/>
+    <tableColumn id="14" name="Description" dataDxfId="54"/>
+    <tableColumn id="15" name="URL" dataDxfId="53"/>
+    <tableColumn id="16" name="Color" dataDxfId="52"/>
+    <tableColumn id="17" name="Style" dataDxfId="51"/>
+    <tableColumn id="18" name="Other Notes" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table45" displayName="Table45" ref="A1:R5" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table45" displayName="Table45" ref="A1:R5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <tableColumns count="18">
-    <tableColumn id="11" name="Ignore" dataDxfId="92"/>
-    <tableColumn id="10" name="Client" dataDxfId="91"/>
-    <tableColumn id="1" name="Offering" dataDxfId="90"/>
-    <tableColumn id="2" name="Offerint to Offering" dataDxfId="89"/>
-    <tableColumn id="3" name="Offering 2" dataDxfId="88"/>
-    <tableColumn id="4" name="Offering to Role" dataDxfId="87"/>
-    <tableColumn id="19" name="Role" dataDxfId="86"/>
-    <tableColumn id="5" name="Offering to Responsibility" dataDxfId="85"/>
-    <tableColumn id="18" name="Responsibility" dataDxfId="84"/>
-    <tableColumn id="6" name="Offering to Tower" dataDxfId="83"/>
-    <tableColumn id="7" name="Tower" dataDxfId="82"/>
-    <tableColumn id="8" name="Offering to Service" dataDxfId="81"/>
-    <tableColumn id="9" name="Service" dataDxfId="80"/>
-    <tableColumn id="14" name="Description" dataDxfId="79"/>
-    <tableColumn id="15" name="URL" dataDxfId="78"/>
-    <tableColumn id="12" name="Color" dataDxfId="77"/>
-    <tableColumn id="13" name="Style" dataDxfId="76"/>
-    <tableColumn id="16" name="Other Notes" dataDxfId="75"/>
+    <tableColumn id="11" name="Ignore" dataDxfId="47"/>
+    <tableColumn id="10" name="Client" dataDxfId="46"/>
+    <tableColumn id="1" name="Offering" dataDxfId="45"/>
+    <tableColumn id="2" name="Offerint to Offering" dataDxfId="44"/>
+    <tableColumn id="3" name="Offering 2" dataDxfId="43"/>
+    <tableColumn id="4" name="Offering to Role" dataDxfId="42"/>
+    <tableColumn id="19" name="Role" dataDxfId="41"/>
+    <tableColumn id="5" name="Offering to Responsibility" dataDxfId="40"/>
+    <tableColumn id="18" name="Responsibility" dataDxfId="39"/>
+    <tableColumn id="6" name="Offering to Tower" dataDxfId="38"/>
+    <tableColumn id="7" name="Tower" dataDxfId="37"/>
+    <tableColumn id="8" name="Offering to Service" dataDxfId="36"/>
+    <tableColumn id="9" name="Service" dataDxfId="35"/>
+    <tableColumn id="14" name="Description" dataDxfId="34"/>
+    <tableColumn id="15" name="URL" dataDxfId="33"/>
+    <tableColumn id="12" name="Color" dataDxfId="32"/>
+    <tableColumn id="13" name="Style" dataDxfId="31"/>
+    <tableColumn id="16" name="Other Notes" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table21" displayName="Table21" ref="A1:M6" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table21" displayName="Table21" ref="A1:M6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="13">
-    <tableColumn id="1" name="Ignore" dataDxfId="72"/>
-    <tableColumn id="2" name="Document" dataDxfId="71"/>
-    <tableColumn id="3" name="Document to Document" dataDxfId="70"/>
-    <tableColumn id="4" name="Document 2" dataDxfId="69"/>
-    <tableColumn id="5" name="Document to Fundamental Object" dataDxfId="68"/>
-    <tableColumn id="6" name="Fundamental Object" dataDxfId="67"/>
-    <tableColumn id="7" name="Document to Message" dataDxfId="66"/>
-    <tableColumn id="8" name="Message" dataDxfId="65"/>
-    <tableColumn id="9" name="Description" dataDxfId="64"/>
-    <tableColumn id="10" name="URL" dataDxfId="63"/>
-    <tableColumn id="11" name="Color" dataDxfId="62"/>
-    <tableColumn id="12" name="Style" dataDxfId="61"/>
-    <tableColumn id="13" name="Other Notes" dataDxfId="60"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="27"/>
+    <tableColumn id="2" name="Document" dataDxfId="26"/>
+    <tableColumn id="3" name="Document to Document" dataDxfId="25"/>
+    <tableColumn id="4" name="Document 2" dataDxfId="24"/>
+    <tableColumn id="5" name="Document to Fundamental Object" dataDxfId="23"/>
+    <tableColumn id="6" name="Fundamental Object" dataDxfId="22"/>
+    <tableColumn id="7" name="Document to Message" dataDxfId="21"/>
+    <tableColumn id="8" name="Message" dataDxfId="20"/>
+    <tableColumn id="9" name="Description" dataDxfId="19"/>
+    <tableColumn id="10" name="URL" dataDxfId="18"/>
+    <tableColumn id="11" name="Color" dataDxfId="17"/>
+    <tableColumn id="12" name="Style" dataDxfId="16"/>
+    <tableColumn id="13" name="Other Notes" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="564" dataDxfId="563">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="552" dataDxfId="551">
   <tableColumns count="17">
-    <tableColumn id="32" name="Ignore" dataDxfId="562"/>
-    <tableColumn id="1" name="Substituting Role" dataDxfId="561"/>
+    <tableColumn id="32" name="Ignore" dataDxfId="550"/>
+    <tableColumn id="1" name="Substituting Role" dataDxfId="549"/>
     <tableColumn id="15" name="Substituted Role"/>
-    <tableColumn id="2" name="Substituting Responsibility" dataDxfId="560"/>
-    <tableColumn id="3" name="Substituted Responsibility" dataDxfId="559"/>
-    <tableColumn id="4" name="Substituting Artifact" dataDxfId="558"/>
-    <tableColumn id="5" name="Substituted Artifact" dataDxfId="557"/>
-    <tableColumn id="16" name="Replica" dataDxfId="556"/>
-    <tableColumn id="27" name="Evoked Template" dataDxfId="555"/>
-    <tableColumn id="28" name="Style of Inclusion in Template" dataDxfId="554"/>
-    <tableColumn id="30" name="Include All in Template" dataDxfId="553"/>
-    <tableColumn id="31" name="Include Relations in Template" dataDxfId="552"/>
-    <tableColumn id="17" name="Description" dataDxfId="551"/>
-    <tableColumn id="18" name="URL" dataDxfId="550"/>
-    <tableColumn id="19" name="Color" dataDxfId="549"/>
-    <tableColumn id="20" name="Style" dataDxfId="548"/>
-    <tableColumn id="26" name="Other Notes" dataDxfId="547"/>
+    <tableColumn id="2" name="Substituting Responsibility" dataDxfId="548"/>
+    <tableColumn id="3" name="Substituted Responsibility" dataDxfId="547"/>
+    <tableColumn id="4" name="Substituting Artifact" dataDxfId="546"/>
+    <tableColumn id="5" name="Substituted Artifact" dataDxfId="545"/>
+    <tableColumn id="16" name="Replica" dataDxfId="544"/>
+    <tableColumn id="27" name="Evoked Template" dataDxfId="543"/>
+    <tableColumn id="28" name="Style of Inclusion in Template" dataDxfId="542"/>
+    <tableColumn id="30" name="Include All in Template" dataDxfId="541"/>
+    <tableColumn id="31" name="Include Relations in Template" dataDxfId="540"/>
+    <tableColumn id="17" name="Description" dataDxfId="539"/>
+    <tableColumn id="18" name="URL" dataDxfId="538"/>
+    <tableColumn id="19" name="Color" dataDxfId="537"/>
+    <tableColumn id="20" name="Style" dataDxfId="536"/>
+    <tableColumn id="26" name="Other Notes" dataDxfId="535"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table42" displayName="Table42" ref="A1:M5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table42" displayName="Table42" ref="A1:M5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="13">
-    <tableColumn id="4" name="Ignore" dataDxfId="57"/>
-    <tableColumn id="1" name="Document" dataDxfId="56"/>
-    <tableColumn id="2" name="Document to Document" dataDxfId="55"/>
-    <tableColumn id="3" name="Document 2" dataDxfId="54"/>
-    <tableColumn id="7" name="Document to Fundamental Object" dataDxfId="53"/>
-    <tableColumn id="6" name="Fundamental Object" dataDxfId="52"/>
-    <tableColumn id="10" name="Document to Message" dataDxfId="51"/>
-    <tableColumn id="8" name="Message" dataDxfId="50"/>
-    <tableColumn id="14" name="Description" dataDxfId="49"/>
-    <tableColumn id="15" name="URL" dataDxfId="48"/>
-    <tableColumn id="5" name="Color" dataDxfId="47"/>
-    <tableColumn id="9" name="Style" dataDxfId="46"/>
-    <tableColumn id="11" name="Other Notes" dataDxfId="45"/>
+    <tableColumn id="4" name="Ignore" dataDxfId="12"/>
+    <tableColumn id="1" name="Document" dataDxfId="11"/>
+    <tableColumn id="2" name="Document to Document" dataDxfId="10"/>
+    <tableColumn id="3" name="Document 2" dataDxfId="9"/>
+    <tableColumn id="7" name="Document to Fundamental Object" dataDxfId="8"/>
+    <tableColumn id="6" name="Fundamental Object" dataDxfId="7"/>
+    <tableColumn id="10" name="Document to Message" dataDxfId="6"/>
+    <tableColumn id="8" name="Message" dataDxfId="5"/>
+    <tableColumn id="14" name="Description" dataDxfId="4"/>
+    <tableColumn id="15" name="URL" dataDxfId="3"/>
+    <tableColumn id="5" name="Color" dataDxfId="2"/>
+    <tableColumn id="9" name="Style" dataDxfId="1"/>
+    <tableColumn id="11" name="Other Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:AE16" totalsRowShown="0" headerRowDxfId="546" dataDxfId="545">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:AE16" totalsRowShown="0" headerRowDxfId="534" dataDxfId="533">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" dataDxfId="544"/>
-    <tableColumn id="2" name="Role" dataDxfId="543"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="542"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="541"/>
-    <tableColumn id="5" name="Artifact" dataDxfId="540"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="539"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="538"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="537"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="536"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="535"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="534"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="533"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="532"/>
-    <tableColumn id="14" name="Actors" dataDxfId="531"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="530"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="529"/>
-    <tableColumn id="17" name="Replica" dataDxfId="528"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="527"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="526"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="525"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="524"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="523"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="522"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="521"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="520"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="519"/>
-    <tableColumn id="27" name="Description" dataDxfId="518"/>
-    <tableColumn id="28" name="URL" dataDxfId="517"/>
-    <tableColumn id="29" name="Color" dataDxfId="516"/>
-    <tableColumn id="30" name="Style" dataDxfId="515"/>
-    <tableColumn id="31" name="Other Notes" dataDxfId="514"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="532"/>
+    <tableColumn id="2" name="Role" dataDxfId="531"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="530"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="529"/>
+    <tableColumn id="5" name="Artifact" dataDxfId="528"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="527"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="526"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="525"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="524"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="523"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="522"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="521"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="520"/>
+    <tableColumn id="14" name="Actors" dataDxfId="519"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="518"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="517"/>
+    <tableColumn id="17" name="Replica" dataDxfId="516"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="515"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="514"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="513"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="512"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="511"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="510"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="509"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="508"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="507"/>
+    <tableColumn id="27" name="Description" dataDxfId="506"/>
+    <tableColumn id="28" name="URL" dataDxfId="505"/>
+    <tableColumn id="29" name="Color" dataDxfId="504"/>
+    <tableColumn id="30" name="Style" dataDxfId="503"/>
+    <tableColumn id="31" name="Other Notes" dataDxfId="502"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table139" displayName="Table139" ref="A1:AG38" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table139" displayName="Table139" ref="A1:AG38" totalsRowShown="0" headerRowDxfId="501" dataDxfId="500">
   <tableColumns count="33">
-    <tableColumn id="32" name="Ignore" dataDxfId="30"/>
-    <tableColumn id="1" name="Role" dataDxfId="29"/>
-    <tableColumn id="10" name="Role 2" dataDxfId="28"/>
-    <tableColumn id="2" name="Responsibility" dataDxfId="27"/>
-    <tableColumn id="3" name="Provides|Consumes" dataDxfId="26"/>
-    <tableColumn id="7" name="Resp 2" dataDxfId="25"/>
-    <tableColumn id="4" name="Artifact" dataDxfId="24"/>
-    <tableColumn id="5" name="Provided By|Consumed By" dataDxfId="23"/>
-    <tableColumn id="6" name="Responsibility to Resp 2" dataDxfId="22"/>
-    <tableColumn id="9" name="Role to Resp 2" dataDxfId="21"/>
-    <tableColumn id="8" name="Role to Role 2" dataDxfId="20"/>
-    <tableColumn id="11" name="Artifact to Artifact 2" dataDxfId="19"/>
-    <tableColumn id="12" name="Artifact 2" dataDxfId="18"/>
-    <tableColumn id="13" name="Actors" dataDxfId="17"/>
-    <tableColumn id="14" name="Actor Class" dataDxfId="16"/>
-    <tableColumn id="33" name="Feature in Evocation" dataDxfId="15"/>
+    <tableColumn id="32" name="Ignore" dataDxfId="499"/>
+    <tableColumn id="1" name="Role" dataDxfId="498"/>
+    <tableColumn id="10" name="Role 2" dataDxfId="497"/>
+    <tableColumn id="2" name="Responsibility" dataDxfId="496"/>
+    <tableColumn id="3" name="Provides|Consumes" dataDxfId="495"/>
+    <tableColumn id="7" name="Resp 2" dataDxfId="494"/>
+    <tableColumn id="4" name="Artifact" dataDxfId="493"/>
+    <tableColumn id="5" name="Provided By|Consumed By" dataDxfId="492"/>
+    <tableColumn id="6" name="Responsibility to Resp 2" dataDxfId="491"/>
+    <tableColumn id="9" name="Role to Resp 2" dataDxfId="490"/>
+    <tableColumn id="8" name="Role to Role 2" dataDxfId="489"/>
+    <tableColumn id="11" name="Artifact to Artifact 2" dataDxfId="488"/>
+    <tableColumn id="12" name="Artifact 2" dataDxfId="487"/>
+    <tableColumn id="13" name="Actors" dataDxfId="486"/>
+    <tableColumn id="14" name="Actor Class" dataDxfId="485"/>
+    <tableColumn id="33" name="Feature in Evocation" dataDxfId="484"/>
     <tableColumn id="34" name="Evocation"/>
     <tableColumn id="29" name="Evocation 2"/>
-    <tableColumn id="16" name="Replica" dataDxfId="14"/>
-    <tableColumn id="27" name="Evoked Template" dataDxfId="13"/>
-    <tableColumn id="28" name="Style of Inclusion in Template" dataDxfId="12"/>
-    <tableColumn id="30" name="Include All in Template" dataDxfId="11"/>
-    <tableColumn id="31" name="Include Relations in Template" dataDxfId="10"/>
-    <tableColumn id="21" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="9"/>
-    <tableColumn id="22" name="Conceptual Service to Contextual Responsibility" dataDxfId="8"/>
-    <tableColumn id="23" name="Conceptual Tower to Contextual Role" dataDxfId="7"/>
-    <tableColumn id="24" name="Conceptual Document to Contextual Artifact" dataDxfId="6"/>
-    <tableColumn id="25" name="Conceptual UI to Contextual Role" dataDxfId="5"/>
-    <tableColumn id="17" name="Description" dataDxfId="4"/>
-    <tableColumn id="18" name="URL" dataDxfId="3"/>
-    <tableColumn id="19" name="Color" dataDxfId="2"/>
-    <tableColumn id="20" name="Style" dataDxfId="1"/>
-    <tableColumn id="26" name="Other Notes" dataDxfId="0"/>
+    <tableColumn id="16" name="Replica" dataDxfId="483"/>
+    <tableColumn id="27" name="Evoked Template" dataDxfId="482"/>
+    <tableColumn id="28" name="Style of Inclusion in Template" dataDxfId="481"/>
+    <tableColumn id="30" name="Include All in Template" dataDxfId="480"/>
+    <tableColumn id="31" name="Include Relations in Template" dataDxfId="479"/>
+    <tableColumn id="21" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="478"/>
+    <tableColumn id="22" name="Conceptual Service to Contextual Responsibility" dataDxfId="477"/>
+    <tableColumn id="23" name="Conceptual Tower to Contextual Role" dataDxfId="476"/>
+    <tableColumn id="24" name="Conceptual Document to Contextual Artifact" dataDxfId="475"/>
+    <tableColumn id="25" name="Conceptual UI to Contextual Role" dataDxfId="474"/>
+    <tableColumn id="17" name="Description" dataDxfId="473"/>
+    <tableColumn id="18" name="URL" dataDxfId="472"/>
+    <tableColumn id="19" name="Color" dataDxfId="471"/>
+    <tableColumn id="20" name="Style" dataDxfId="470"/>
+    <tableColumn id="26" name="Other Notes" dataDxfId="469"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="513" dataDxfId="512">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="468" dataDxfId="467">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" dataDxfId="511"/>
-    <tableColumn id="2" name="Role" dataDxfId="510"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="509"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="508"/>
-    <tableColumn id="5" name="Artifact" dataDxfId="507"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="506"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="505"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="504"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="503"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="502"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="501"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="500"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="499"/>
-    <tableColumn id="14" name="Actors" dataDxfId="498"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="497"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="496"/>
-    <tableColumn id="17" name="Replica" dataDxfId="495"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="494"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="493"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="492"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="491"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="490"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="489"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="488"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="487"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="486"/>
-    <tableColumn id="27" name="Description" dataDxfId="485"/>
-    <tableColumn id="28" name="URL" dataDxfId="484"/>
-    <tableColumn id="29" name="Color" dataDxfId="483"/>
-    <tableColumn id="30" name="Style" dataDxfId="482"/>
-    <tableColumn id="31" name="Other Notes" dataDxfId="481"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="466"/>
+    <tableColumn id="2" name="Role" dataDxfId="465"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="464"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="463"/>
+    <tableColumn id="5" name="Artifact" dataDxfId="462"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="461"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="460"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="459"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="458"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="457"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="456"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="455"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="454"/>
+    <tableColumn id="14" name="Actors" dataDxfId="453"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="452"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="451"/>
+    <tableColumn id="17" name="Replica" dataDxfId="450"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="449"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="448"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="447"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="446"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="445"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="444"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="443"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="442"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="441"/>
+    <tableColumn id="27" name="Description" dataDxfId="440"/>
+    <tableColumn id="28" name="URL" dataDxfId="439"/>
+    <tableColumn id="29" name="Color" dataDxfId="438"/>
+    <tableColumn id="30" name="Style" dataDxfId="437"/>
+    <tableColumn id="31" name="Other Notes" dataDxfId="436"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="480" dataDxfId="479">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="435" dataDxfId="434">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" dataDxfId="478"/>
-    <tableColumn id="2" name="Role" dataDxfId="477"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="476"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="475"/>
-    <tableColumn id="5" name="Artifact" dataDxfId="474"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="473"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="472"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="471"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="470"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="469"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="468"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="467"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="466"/>
-    <tableColumn id="14" name="Actors" dataDxfId="465"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="464"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="463"/>
-    <tableColumn id="17" name="Replica" dataDxfId="462"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="461"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="460"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="459"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="458"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="457"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="456"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="455"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="454"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="453"/>
-    <tableColumn id="27" name="Description" dataDxfId="452"/>
-    <tableColumn id="28" name="URL" dataDxfId="451"/>
-    <tableColumn id="29" name="Color" dataDxfId="450"/>
-    <tableColumn id="30" name="Style" dataDxfId="449"/>
-    <tableColumn id="31" name="Other Notes" dataDxfId="448"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="433"/>
+    <tableColumn id="2" name="Role" dataDxfId="432"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="431"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="430"/>
+    <tableColumn id="5" name="Artifact" dataDxfId="429"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="428"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="427"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="426"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="425"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="424"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="423"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="422"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="421"/>
+    <tableColumn id="14" name="Actors" dataDxfId="420"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="419"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="418"/>
+    <tableColumn id="17" name="Replica" dataDxfId="417"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="416"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="415"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="414"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="413"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="412"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="411"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="410"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="409"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="408"/>
+    <tableColumn id="27" name="Description" dataDxfId="407"/>
+    <tableColumn id="28" name="URL" dataDxfId="406"/>
+    <tableColumn id="29" name="Color" dataDxfId="405"/>
+    <tableColumn id="30" name="Style" dataDxfId="404"/>
+    <tableColumn id="31" name="Other Notes" dataDxfId="403"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:AE10" totalsRowShown="0" headerRowDxfId="447" dataDxfId="446">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:AE10" totalsRowShown="0" headerRowDxfId="402" dataDxfId="401">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" dataDxfId="445"/>
-    <tableColumn id="2" name="Role" dataDxfId="444"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="443"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="442"/>
-    <tableColumn id="5" name="Artifact" dataDxfId="441"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="440"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="439"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="438"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="437"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="436"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="435"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="434"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="433"/>
-    <tableColumn id="14" name="Actors" dataDxfId="432"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="431"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="430"/>
-    <tableColumn id="17" name="Replica" dataDxfId="429"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="428"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="427"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="426"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="425"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="424"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="423"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="422"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="421"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="420"/>
-    <tableColumn id="27" name="Description" dataDxfId="419"/>
-    <tableColumn id="28" name="URL" dataDxfId="418"/>
-    <tableColumn id="29" name="Color" dataDxfId="417"/>
-    <tableColumn id="30" name="Style" dataDxfId="416"/>
-    <tableColumn id="31" name="Other Notes" dataDxfId="415"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="400"/>
+    <tableColumn id="2" name="Role" dataDxfId="399"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="398"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="397"/>
+    <tableColumn id="5" name="Artifact" dataDxfId="396"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="395"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="394"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="393"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="392"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="391"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="390"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="389"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="388"/>
+    <tableColumn id="14" name="Actors" dataDxfId="387"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="386"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="385"/>
+    <tableColumn id="17" name="Replica" dataDxfId="384"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="383"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="382"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="381"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="380"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="379"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="378"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="377"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="376"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="375"/>
+    <tableColumn id="27" name="Description" dataDxfId="374"/>
+    <tableColumn id="28" name="URL" dataDxfId="373"/>
+    <tableColumn id="29" name="Color" dataDxfId="372"/>
+    <tableColumn id="30" name="Style" dataDxfId="371"/>
+    <tableColumn id="31" name="Other Notes" dataDxfId="370"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="414" dataDxfId="413">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="369" dataDxfId="368">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" dataDxfId="412"/>
-    <tableColumn id="2" name="Actor" dataDxfId="411"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="410"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="409"/>
-    <tableColumn id="5" name="Artifact" dataDxfId="408"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="407"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="406"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="405"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="404"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="403"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="402"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="401"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="400"/>
-    <tableColumn id="14" name="Actors" dataDxfId="399"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="398"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="397"/>
-    <tableColumn id="17" name="Replica" dataDxfId="396"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="395"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="394"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="393"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="392"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="391"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="390"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="389"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="388"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="387"/>
-    <tableColumn id="27" name="Description" dataDxfId="386"/>
-    <tableColumn id="28" name="URL" dataDxfId="385"/>
-    <tableColumn id="29" name="Color" dataDxfId="384"/>
-    <tableColumn id="30" name="Style" dataDxfId="383"/>
-    <tableColumn id="31" name="Other Notes" dataDxfId="382"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="367"/>
+    <tableColumn id="2" name="Actor" dataDxfId="366"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="365"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="364"/>
+    <tableColumn id="5" name="Artifact" dataDxfId="363"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="362"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="361"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="360"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="359"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="358"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="357"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="356"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="355"/>
+    <tableColumn id="14" name="Actors" dataDxfId="354"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="353"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="352"/>
+    <tableColumn id="17" name="Replica" dataDxfId="351"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="350"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="349"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="348"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="347"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="346"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="345"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="344"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="343"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="342"/>
+    <tableColumn id="27" name="Description" dataDxfId="341"/>
+    <tableColumn id="28" name="URL" dataDxfId="340"/>
+    <tableColumn id="29" name="Color" dataDxfId="339"/>
+    <tableColumn id="30" name="Style" dataDxfId="338"/>
+    <tableColumn id="31" name="Other Notes" dataDxfId="337"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table15" displayName="Table15" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="381" dataDxfId="380">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table15" displayName="Table15" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="336" dataDxfId="335">
   <tableColumns count="31">
-    <tableColumn id="1" name="Ignore" dataDxfId="379"/>
-    <tableColumn id="2" name="Role" dataDxfId="378"/>
-    <tableColumn id="3" name="Responsibility" dataDxfId="377"/>
-    <tableColumn id="4" name="Provides|Consumes" dataDxfId="376"/>
-    <tableColumn id="5" name="Artifact" dataDxfId="375"/>
-    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="374"/>
-    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="373"/>
-    <tableColumn id="8" name="Role to Resp 2" dataDxfId="372"/>
-    <tableColumn id="9" name="Resp 2" dataDxfId="371"/>
-    <tableColumn id="10" name="Role to Role 2" dataDxfId="370"/>
-    <tableColumn id="11" name="Role 2" dataDxfId="369"/>
-    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="368"/>
-    <tableColumn id="13" name="Artifact 2" dataDxfId="367"/>
-    <tableColumn id="14" name="Actors" dataDxfId="366"/>
-    <tableColumn id="15" name="Actor Class" dataDxfId="365"/>
-    <tableColumn id="16" name="Feature in Evocation" dataDxfId="364"/>
-    <tableColumn id="17" name="Replica" dataDxfId="363"/>
-    <tableColumn id="18" name="Evoked Template" dataDxfId="362"/>
-    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="361"/>
-    <tableColumn id="20" name="Include All in Template" dataDxfId="360"/>
-    <tableColumn id="21" name="Include Relations in Template" dataDxfId="359"/>
-    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="358"/>
-    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="357"/>
-    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="356"/>
-    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="355"/>
-    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="354"/>
-    <tableColumn id="27" name="Description" dataDxfId="353"/>
-    <tableColumn id="28" name="URL" dataDxfId="352"/>
-    <tableColumn id="29" name="Color" dataDxfId="351"/>
-    <tableColumn id="30" name="Style" dataDxfId="350"/>
-    <tableColumn id="31" name="Other Notes" dataDxfId="349"/>
+    <tableColumn id="1" name="Ignore" dataDxfId="334"/>
+    <tableColumn id="2" name="Role" dataDxfId="333"/>
+    <tableColumn id="3" name="Responsibility" dataDxfId="332"/>
+    <tableColumn id="4" name="Provides|Consumes" dataDxfId="331"/>
+    <tableColumn id="5" name="Artifact" dataDxfId="330"/>
+    <tableColumn id="6" name="Provided By|Consumed By" dataDxfId="329"/>
+    <tableColumn id="7" name="Responsibility to Resp 2" dataDxfId="328"/>
+    <tableColumn id="8" name="Role to Resp 2" dataDxfId="327"/>
+    <tableColumn id="9" name="Resp 2" dataDxfId="326"/>
+    <tableColumn id="10" name="Role to Role 2" dataDxfId="325"/>
+    <tableColumn id="11" name="Role 2" dataDxfId="324"/>
+    <tableColumn id="12" name="Artifact to Artifact 2" dataDxfId="323"/>
+    <tableColumn id="13" name="Artifact 2" dataDxfId="322"/>
+    <tableColumn id="14" name="Actors" dataDxfId="321"/>
+    <tableColumn id="15" name="Actor Class" dataDxfId="320"/>
+    <tableColumn id="16" name="Feature in Evocation" dataDxfId="319"/>
+    <tableColumn id="17" name="Replica" dataDxfId="318"/>
+    <tableColumn id="18" name="Evoked Template" dataDxfId="317"/>
+    <tableColumn id="19" name="Style of Inclusion in Template" dataDxfId="316"/>
+    <tableColumn id="20" name="Include All in Template" dataDxfId="315"/>
+    <tableColumn id="21" name="Include Relations in Template" dataDxfId="314"/>
+    <tableColumn id="22" name="Conceptual Operation To Contextual Artifact Exchange" dataDxfId="313"/>
+    <tableColumn id="23" name="Conceptual Service to Contextual Responsibility" dataDxfId="312"/>
+    <tableColumn id="24" name="Conceptual Tower to Contextual Role" dataDxfId="311"/>
+    <tableColumn id="25" name="Conceptual Document to Contextual Artifact" dataDxfId="310"/>
+    <tableColumn id="26" name="Conceptual UI to Contextual Role" dataDxfId="309"/>
+    <tableColumn id="27" name="Description" dataDxfId="308"/>
+    <tableColumn id="28" name="URL" dataDxfId="307"/>
+    <tableColumn id="29" name="Color" dataDxfId="306"/>
+    <tableColumn id="30" name="Style" dataDxfId="305"/>
+    <tableColumn id="31" name="Other Notes" dataDxfId="304"/>
   </tableColumns>
   <tableStyleInfo name="RDA Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11951,8 +11951,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12030,7 +12030,7 @@
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>26</v>
@@ -12201,7 +12201,7 @@
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="43" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -12240,7 +12240,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="42" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -12254,7 +12254,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="42" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -12268,7 +12268,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -16455,7 +16455,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
         <v>86</v>
@@ -16496,7 +16496,7 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
         <v>87</v>
@@ -16534,7 +16534,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -16569,7 +16569,7 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K6" t="s">
         <v>239</v>
@@ -16986,7 +16986,7 @@
       </c>
       <c r="R3" s="25"/>
       <c r="S3" s="25" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
@@ -17037,12 +17037,12 @@
         <v>131</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C6" s="21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>85</v>
@@ -17054,7 +17054,7 @@
         <v>131</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE6" s="44"/>
     </row>
@@ -17063,7 +17063,7 @@
         <v>245</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>85</v>
@@ -17075,13 +17075,13 @@
         <v>131</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE7" s="44"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>18</v>
@@ -17090,10 +17090,10 @@
         <v>241</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>246</v>
@@ -17102,49 +17102,49 @@
         <v>131</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE8" s="44"/>
     </row>
     <row r="9" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="S9" s="21" t="s">
         <v>131</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE9" s="44"/>
     </row>
     <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="21" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>131</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE10" s="44"/>
     </row>
@@ -17174,7 +17174,7 @@
         <v>131</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -17191,7 +17191,7 @@
         <v>131</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE12" s="44"/>
     </row>
@@ -17209,7 +17209,7 @@
         <v>131</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE13" s="44"/>
     </row>
@@ -17227,7 +17227,7 @@
         <v>131</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE14" s="44"/>
     </row>
@@ -17245,7 +17245,7 @@
         <v>131</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE15" s="44"/>
     </row>
@@ -17263,7 +17263,7 @@
         <v>131</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AE16" s="44"/>
     </row>
@@ -17327,9 +17327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17416,7 +17416,7 @@
         <v>182</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="S1" s="18" t="s">
         <v>187</v>
@@ -17567,14 +17567,14 @@
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
@@ -17593,7 +17593,7 @@
         <v>61</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>54</v>
@@ -17606,14 +17606,14 @@
       </c>
       <c r="Q3" s="25"/>
       <c r="R3" s="25" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
@@ -17658,7 +17658,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -17672,7 +17672,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="S5" s="21" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
@@ -17697,7 +17697,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -17711,7 +17711,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="S6" s="21" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -17736,7 +17736,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -17750,7 +17750,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="S7" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -17771,90 +17771,90 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="G8" s="45" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>242</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G9" s="21" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K9" s="21"/>
       <c r="M9" s="21" t="s">
         <v>241</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG9" s="44"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G10" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K10" s="21"/>
       <c r="M10" s="21" t="s">
         <v>242</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG10" s="44"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G11" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K11" s="21"/>
       <c r="M11" s="21" t="s">
         <v>241</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG11" s="44"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G12" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="21" t="s">
         <v>242</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG12" s="44"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G13" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K13" s="21"/>
       <c r="M13" s="21" t="s">
         <v>241</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG13" s="44"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G14" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K14" s="21"/>
       <c r="M14" s="21" t="s">
         <v>242</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG14" s="44"/>
     </row>
@@ -17867,16 +17867,16 @@
       <c r="K16" s="21"/>
       <c r="M16" s="21"/>
       <c r="S16" s="21" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG16" s="44"/>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>245</v>
@@ -17884,13 +17884,13 @@
       <c r="K17" s="21"/>
       <c r="M17" s="21"/>
       <c r="S17" s="21" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="AG17" s="44"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>246</v>
@@ -17898,13 +17898,13 @@
       <c r="K18" s="21"/>
       <c r="M18" s="21"/>
       <c r="S18" s="21" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="AG18" s="44"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D19" s="21" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>244</v>
@@ -17912,7 +17912,7 @@
       <c r="K19" s="21"/>
       <c r="M19" s="21"/>
       <c r="S19" s="21" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="AG19" s="44"/>
     </row>
@@ -17920,16 +17920,16 @@
       <c r="K20" s="21"/>
       <c r="M20" s="21"/>
       <c r="S20" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG20" s="44"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>245</v>
@@ -17937,13 +17937,13 @@
       <c r="K21" s="21"/>
       <c r="M21" s="21"/>
       <c r="S21" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AG21" s="44"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>246</v>
@@ -17951,13 +17951,13 @@
       <c r="K22" s="21"/>
       <c r="M22" s="21"/>
       <c r="S22" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AG22" s="44"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D23" s="21" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>243</v>
@@ -17965,13 +17965,13 @@
       <c r="K23" s="21"/>
       <c r="M23" s="21"/>
       <c r="S23" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AG23" s="44"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D24" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>244</v>
@@ -17979,7 +17979,7 @@
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
       <c r="S24" s="21" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AG24" s="44"/>
     </row>
@@ -17987,16 +17987,16 @@
       <c r="K25" s="21"/>
       <c r="M25" s="21"/>
       <c r="S25" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG25" s="44"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>245</v>
@@ -18004,13 +18004,13 @@
       <c r="K26" s="21"/>
       <c r="M26" s="21"/>
       <c r="S26" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG26" s="44"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>246</v>
@@ -18018,13 +18018,13 @@
       <c r="K27" s="21"/>
       <c r="M27" s="21"/>
       <c r="S27" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG27" s="44"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D28" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>243</v>
@@ -18032,13 +18032,13 @@
       <c r="K28" s="21"/>
       <c r="M28" s="21"/>
       <c r="S28" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG28" s="44"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D29" s="21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>244</v>
@@ -18046,7 +18046,7 @@
       <c r="K29" s="21"/>
       <c r="M29" s="21"/>
       <c r="S29" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG29" s="44"/>
     </row>
@@ -18054,16 +18054,16 @@
       <c r="K30" s="21"/>
       <c r="M30" s="21"/>
       <c r="S30" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG30" s="44"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>245</v>
@@ -18071,13 +18071,13 @@
       <c r="K31" s="21"/>
       <c r="M31" s="21"/>
       <c r="S31" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG31" s="44"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>246</v>
@@ -18085,13 +18085,13 @@
       <c r="K32" s="21"/>
       <c r="M32" s="21"/>
       <c r="S32" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG32" s="44"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D33" s="21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>243</v>
@@ -18099,13 +18099,13 @@
       <c r="K33" s="21"/>
       <c r="M33" s="21"/>
       <c r="S33" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG33" s="44"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D34" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>244</v>
@@ -18113,7 +18113,7 @@
       <c r="K34" s="21"/>
       <c r="M34" s="21"/>
       <c r="S34" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG34" s="44"/>
     </row>
@@ -18121,16 +18121,16 @@
       <c r="K35" s="21"/>
       <c r="M35" s="21"/>
       <c r="S35" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T35" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG35" s="44"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>245</v>
@@ -18138,13 +18138,13 @@
       <c r="K36" s="21"/>
       <c r="M36" s="21"/>
       <c r="S36" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG36" s="44"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>246</v>
@@ -18152,13 +18152,13 @@
       <c r="K37" s="21"/>
       <c r="M37" s="21"/>
       <c r="S37" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG37" s="44"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D38" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>243</v>
@@ -18166,7 +18166,7 @@
       <c r="K38" s="21"/>
       <c r="M38" s="21"/>
       <c r="S38" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG38" s="44"/>
     </row>

--- a/XLFiles/Examples/Template Example Simple.xlsx
+++ b/XLFiles/Examples/Template Example Simple.xlsx
@@ -896,25 +896,25 @@
     <t>Subordinate Objectives Template</t>
   </si>
   <si>
-    <t>Example Company</t>
-  </si>
-  <si>
-    <t>Financial Target &lt;&lt;Example Division&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Example Company-Example Division</t>
-  </si>
-  <si>
-    <t>Demand Forecast &lt;&lt;Example Division&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Example Division-Region</t>
-  </si>
-  <si>
-    <t>Example Division</t>
-  </si>
-  <si>
-    <t>Meet Objectives &lt;&lt;Example Division&gt;&gt;</t>
+    <t>Financial Target &lt;&lt;Global Business&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Demand Forecast &lt;&lt;Global Business&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Global Business-Region</t>
+  </si>
+  <si>
+    <t>Global Business</t>
+  </si>
+  <si>
+    <t>Meet Objectives &lt;&lt;Global Business&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Parent Company-Global Business</t>
+  </si>
+  <si>
+    <t>Parent Company</t>
   </si>
 </sst>
 </file>
@@ -17658,7 +17658,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -17672,7 +17672,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="S5" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
@@ -17697,7 +17697,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -17711,7 +17711,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="S6" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -17750,7 +17750,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="S7" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -17777,7 +17777,7 @@
         <v>242</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -17863,20 +17863,20 @@
       <c r="M15" s="21"/>
       <c r="AG15" s="44"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="K16" s="21"/>
       <c r="M16" s="21"/>
       <c r="S16" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T16" s="21" t="s">
         <v>285</v>
       </c>
       <c r="AG16" s="44"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>245</v>
@@ -17884,13 +17884,13 @@
       <c r="K17" s="21"/>
       <c r="M17" s="21"/>
       <c r="S17" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AG17" s="44"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>246</v>
@@ -17898,13 +17898,13 @@
       <c r="K18" s="21"/>
       <c r="M18" s="21"/>
       <c r="S18" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AG18" s="44"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>244</v>
@@ -17912,7 +17912,7 @@
       <c r="K19" s="21"/>
       <c r="M19" s="21"/>
       <c r="S19" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AG19" s="44"/>
     </row>
@@ -17920,7 +17920,7 @@
       <c r="K20" s="21"/>
       <c r="M20" s="21"/>
       <c r="S20" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T20" s="21" t="s">
         <v>285</v>
@@ -17929,7 +17929,7 @@
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>245</v>
@@ -17937,7 +17937,7 @@
       <c r="K21" s="21"/>
       <c r="M21" s="21"/>
       <c r="S21" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG21" s="44"/>
     </row>
@@ -17951,13 +17951,13 @@
       <c r="K22" s="21"/>
       <c r="M22" s="21"/>
       <c r="S22" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG22" s="44"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="D23" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>243</v>
@@ -17965,7 +17965,7 @@
       <c r="K23" s="21"/>
       <c r="M23" s="21"/>
       <c r="S23" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG23" s="44"/>
     </row>
@@ -17979,7 +17979,7 @@
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
       <c r="S24" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG24" s="44"/>
     </row>
